--- a/Libraries/Vehicle/Steer/Ackermann/sm_car_data_Steer_Ackermann.xlsx
+++ b/Libraries/Vehicle/Steer/Ackermann/sm_car_data_Steer_Ackermann.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Steer\Ackermann\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35D3E30-A89F-4C8C-8910-D00D8B5E3AC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E230D7-ABC2-4A22-850F-FA6CF9370E6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{6551A3D7-48D1-475C-90BB-3A0F5E8315B3}"/>
+    <workbookView xWindow="0" yWindow="3072" windowWidth="23040" windowHeight="10212" activeTab="3" xr2:uid="{6551A3D7-48D1-475C-90BB-3A0F5E8315B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_Hamba_f" sheetId="2" r:id="rId1"/>
     <sheet name="Sedan_HambaLG_f" sheetId="1" r:id="rId2"/>
     <sheet name="Bus_Makhulu_f" sheetId="3" r:id="rId3"/>
+    <sheet name="Truck_Amandla_A1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
   <si>
     <t>Units</t>
   </si>
@@ -105,6 +108,9 @@
   </si>
   <si>
     <t>Ackermann_Makhulu_f</t>
+  </si>
+  <si>
+    <t>Ackermann_Amandla_A1</t>
   </si>
 </sst>
 </file>
@@ -206,7 +212,84 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="44">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -753,7 +836,7 @@
   </sheetPr>
   <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
@@ -1094,57 +1177,57 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:B16 A4:B4">
-    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="10" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B18">
-    <cfRule type="cellIs" dxfId="31" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="11" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="8" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B7">
-    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E7">
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1500,57 +1583,57 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:B16 A4:B4">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B18">
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="11" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B7">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E7">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1906,6 +1989,412 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:B16 A4:B4">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:B18">
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:B7">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E7">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:B8">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6242D4D0-AC4E-4FE0-AE9C-8DE79678564D}">
+  <sheetPr>
+    <tabColor rgb="FFFF9999"/>
+  </sheetPr>
+  <dimension ref="A1:AB20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5">
+        <f>-1/16*0.1</f>
+        <v>-6.2500000000000003E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="15">
+        <v>-0.97309999999999997</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.55801000000000001</v>
+      </c>
+      <c r="H6" s="15">
+        <v>2.5924</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+    </row>
+    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15">
+        <v>0.78888879999999995</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+    </row>
+    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15">
+        <v>1</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+    </row>
+    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15">
+        <v>10</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+    </row>
+    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="13"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A15:B16 A4:B4">
     <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"class"</formula>
     </cfRule>

--- a/Libraries/Vehicle/Steer/Ackermann/sm_car_data_Steer_Ackermann.xlsx
+++ b/Libraries/Vehicle/Steer/Ackermann/sm_car_data_Steer_Ackermann.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Steer\Ackermann\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E230D7-ABC2-4A22-850F-FA6CF9370E6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD502B64-E251-49DF-A119-4740F9C6DFD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3072" windowWidth="23040" windowHeight="10212" activeTab="3" xr2:uid="{6551A3D7-48D1-475C-90BB-3A0F5E8315B3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="717" activeTab="5" xr2:uid="{6551A3D7-48D1-475C-90BB-3A0F5E8315B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_Hamba_f" sheetId="2" r:id="rId1"/>
-    <sheet name="Sedan_HambaLG_f" sheetId="1" r:id="rId2"/>
-    <sheet name="Bus_Makhulu_f" sheetId="3" r:id="rId3"/>
-    <sheet name="Truck_Amandla_A1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sedan_Hamba_r" sheetId="5" r:id="rId2"/>
+    <sheet name="Sedan_HambaLG_f" sheetId="1" r:id="rId3"/>
+    <sheet name="Sedan_HambaLG_r" sheetId="6" r:id="rId4"/>
+    <sheet name="Bus_Makhulu_f" sheetId="3" r:id="rId5"/>
+    <sheet name="Truck_Amandla_A1" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="32">
   <si>
     <t>Units</t>
   </si>
@@ -111,6 +113,27 @@
   </si>
   <si>
     <t>Ackermann_Amandla_A1</t>
+  </si>
+  <si>
+    <t>Ackermann_Hamba_r</t>
+  </si>
+  <si>
+    <t>AckermannWheelsOnly</t>
+  </si>
+  <si>
+    <t>Ackermann_HambaLG_r</t>
+  </si>
+  <si>
+    <t>xWheelbase</t>
+  </si>
+  <si>
+    <t>xTrack</t>
+  </si>
+  <si>
+    <t>sWheelCentre(2)*2</t>
+  </si>
+  <si>
+    <t>Vehicle.Chassis.Body.sAxle1.Value - Vehicle.Chassis.Body.sAxle(rear).Value</t>
   </si>
 </sst>
 </file>
@@ -212,7 +235,105 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="58">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -841,13 +962,13 @@
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
@@ -944,8 +1065,7 @@
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5">
-        <f>-1/16*0.1</f>
-        <v>-6.2500000000000003E-3</v>
+        <v>0.35809000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1076,7 +1196,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1100,16 +1220,41 @@
       <c r="AB9"/>
     </row>
     <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7">
+        <v>2.8239999999999998</v>
+      </c>
     </row>
     <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7">
+        <f>0.7865*2</f>
+        <v>1.573</v>
+      </c>
     </row>
     <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
@@ -1177,57 +1322,57 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:B16 A4:B4">
-    <cfRule type="cellIs" dxfId="43" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="10" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B18">
-    <cfRule type="cellIs" dxfId="42" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="11" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="cellIs" dxfId="41" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="8" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="9" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B7">
-    <cfRule type="cellIs" dxfId="39" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E7">
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1236,24 +1381,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1D7D30-EC65-433D-A145-052CA04D7B95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5445A87D-E86D-437B-8F75-18BDC2716032}">
   <sheetPr>
     <tabColor rgb="FFFF9999"/>
   </sheetPr>
-  <dimension ref="A1:AB20"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
@@ -1323,7 +1468,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1337,7 +1482,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="11" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1350,29 +1495,24 @@
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5">
-        <f>-1/16*0.1</f>
-        <v>-6.2500000000000003E-3</v>
+        <v>0.35809000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7">
-        <v>-1.3243331220516996</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.45175517503754498</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.88921153885340298</v>
+        <v>19</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15">
+        <v>100</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -1396,6 +1536,306 @@
       <c r="AB6"/>
     </row>
     <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7">
+        <v>2.8239999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7">
+        <f>0.7865*2</f>
+        <v>1.573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="13"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A12:B13 A4:B4">
+    <cfRule type="cellIs" dxfId="46" priority="10" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:B15">
+    <cfRule type="cellIs" dxfId="45" priority="11" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="cellIs" dxfId="44" priority="8" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="cellIs" dxfId="43" priority="9" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1D7D30-EC65-433D-A145-052CA04D7B95}">
+  <sheetPr>
+    <tabColor rgb="FFFF9999"/>
+  </sheetPr>
+  <dimension ref="A1:AB20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5">
+        <v>0.35809000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7">
+        <v>-1.3243331220516996</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.45175517503754498</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.88921153885340298</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+    </row>
+    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>14</v>
@@ -1482,7 +1922,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1506,16 +1946,41 @@
       <c r="AB9"/>
     </row>
     <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7">
+        <v>3.57</v>
+      </c>
     </row>
     <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7">
+        <f>0.9921*2</f>
+        <v>1.9842</v>
+      </c>
     </row>
     <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
@@ -1583,57 +2048,57 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:B16 A4:B4">
-    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B18">
-    <cfRule type="cellIs" dxfId="31" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B7">
-    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E7">
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1641,25 +2106,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0A7380-3E5A-436D-B7E7-275A0C4C8A59}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10970AED-785E-43B8-A55C-D5B21E407420}">
   <sheetPr>
     <tabColor rgb="FFFF9999"/>
   </sheetPr>
-  <dimension ref="A1:AB20"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
@@ -1729,7 +2194,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1743,7 +2208,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="11" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1756,29 +2221,24 @@
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5">
-        <f>-1/16*0.1</f>
-        <v>-6.2500000000000003E-3</v>
+        <v>0.35809000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="15">
-        <v>1.18</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0.55926517503754503</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="15">
-        <v>1.34</v>
+        <v>100</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -1802,6 +2262,306 @@
       <c r="AB6"/>
     </row>
     <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7">
+        <f>0.9921*2</f>
+        <v>1.9842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="13"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A12:B13 A4:B4">
+    <cfRule type="cellIs" dxfId="28" priority="10" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:B15">
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0A7380-3E5A-436D-B7E7-275A0C4C8A59}">
+  <sheetPr>
+    <tabColor rgb="FFFF9999"/>
+  </sheetPr>
+  <dimension ref="A1:AB20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5">
+        <v>0.35809000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1.18</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.55926517503754503</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1.34</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+    </row>
+    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>14</v>
@@ -1888,7 +2648,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1912,16 +2672,41 @@
       <c r="AB9"/>
     </row>
     <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7">
+        <v>6.7816159999999996</v>
+      </c>
     </row>
     <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7">
+        <f>0.83834*2</f>
+        <v>1.6766799999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
@@ -2047,7 +2832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6242D4D0-AC4E-4FE0-AE9C-8DE79678564D}">
   <sheetPr>
     <tabColor rgb="FFFF9999"/>
@@ -2059,13 +2844,13 @@
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
@@ -2162,8 +2947,7 @@
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5">
-        <f>-1/16*0.1</f>
-        <v>-6.2500000000000003E-3</v>
+        <v>0.35809000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2294,7 +3078,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -2318,16 +3102,41 @@
       <c r="AB9"/>
     </row>
     <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7">
+        <v>6.4820000000000002</v>
+      </c>
     </row>
     <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7">
+        <f>0.96035*2</f>
+        <v>1.9207000000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>

--- a/Libraries/Vehicle/Steer/Ackermann/sm_car_data_Steer_Ackermann.xlsx
+++ b/Libraries/Vehicle/Steer/Ackermann/sm_car_data_Steer_Ackermann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Steer\Ackermann\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smiller\ssvt\Libraries\Vehicle\Steer\Ackermann\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD502B64-E251-49DF-A119-4740F9C6DFD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889776E9-5E44-46A5-A19C-C9827C4102C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="717" activeTab="5" xr2:uid="{6551A3D7-48D1-475C-90BB-3A0F5E8315B3}"/>
+    <workbookView xWindow="2865" yWindow="1185" windowWidth="20700" windowHeight="10110" tabRatio="717" xr2:uid="{6551A3D7-48D1-475C-90BB-3A0F5E8315B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_Hamba_f" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="33">
   <si>
     <t>Units</t>
   </si>
@@ -135,6 +135,9 @@
   <si>
     <t>Vehicle.Chassis.Body.sAxle1.Value - Vehicle.Chassis.Body.sAxle(rear).Value</t>
   </si>
+  <si>
+    <t>Sedan</t>
+  </si>
 </sst>
 </file>
 
@@ -198,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -231,11 +234,78 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="67">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -955,28 +1025,28 @@
   <sheetPr>
     <tabColor rgb="FFFF9999"/>
   </sheetPr>
-  <dimension ref="A1:AB20"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -996,7 +1066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1027,7 +1097,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1041,7 +1111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1055,7 +1125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1068,7 +1138,7 @@
         <v>0.35809000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1109,7 +1179,7 @@
       <c r="AA6"/>
       <c r="AB6"/>
     </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>14</v>
@@ -1144,7 +1214,7 @@
       <c r="AA7"/>
       <c r="AB7"/>
     </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>13</v>
@@ -1182,64 +1252,59 @@
       <c r="AA8"/>
       <c r="AB8"/>
     </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15">
-        <v>100</v>
-      </c>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-    </row>
-    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7">
-        <v>2.8239999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15">
+        <v>100</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+    </row>
+    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1247,70 +1312,78 @@
         <v>13</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7">
+        <v>2.8239999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7">
         <f>0.7865*2</f>
         <v>1.573</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="6"/>
@@ -1320,59 +1393,79 @@
       <c r="G20" s="6"/>
       <c r="H20" s="13"/>
     </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="13"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A15:B16 A4:B4">
-    <cfRule type="cellIs" dxfId="57" priority="10" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B18">
-    <cfRule type="cellIs" dxfId="56" priority="11" operator="equal">
+  <conditionalFormatting sqref="A16:B17 A4:B4">
+    <cfRule type="cellIs" dxfId="66" priority="12" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:B19">
+    <cfRule type="cellIs" dxfId="65" priority="13" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="cellIs" dxfId="64" priority="10" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="cellIs" dxfId="55" priority="8" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="54" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="11" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B7">
-    <cfRule type="cellIs" dxfId="53" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="9" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E7">
-    <cfRule type="cellIs" dxfId="52" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="8" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="cellIs" dxfId="51" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="49" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="cellIs" dxfId="58" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="cellIs" dxfId="56" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:B9">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1395,18 +1488,18 @@
       <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1426,7 +1519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1457,7 +1550,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1471,7 +1564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1485,7 +1578,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1498,7 +1591,7 @@
         <v>0.35809000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1535,7 +1628,7 @@
       <c r="AA6"/>
       <c r="AB6"/>
     </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
@@ -1553,7 +1646,7 @@
         <v>2.8239999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -1572,51 +1665,51 @@
         <v>1.573</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="6"/>
@@ -1626,7 +1719,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="6"/>
@@ -1638,37 +1731,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A12:B13 A4:B4">
-    <cfRule type="cellIs" dxfId="46" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="10" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B15">
-    <cfRule type="cellIs" dxfId="45" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="11" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="44" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="8" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="43" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="9" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1681,28 +1774,28 @@
   <sheetPr>
     <tabColor rgb="FFFF9999"/>
   </sheetPr>
-  <dimension ref="A1:AB20"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1722,7 +1815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1753,7 +1846,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1767,7 +1860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1781,7 +1874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1794,7 +1887,7 @@
         <v>0.35809000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1835,7 +1928,7 @@
       <c r="AA6"/>
       <c r="AB6"/>
     </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>14</v>
@@ -1870,7 +1963,7 @@
       <c r="AA7"/>
       <c r="AB7"/>
     </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>13</v>
@@ -1908,64 +2001,59 @@
       <c r="AA8"/>
       <c r="AB8"/>
     </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15">
-        <v>100</v>
-      </c>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-    </row>
-    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7">
-        <v>3.57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15">
+        <v>100</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+    </row>
+    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1973,70 +2061,78 @@
         <v>13</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7">
         <f>0.9921*2</f>
         <v>1.9842</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="6"/>
@@ -2046,59 +2142,79 @@
       <c r="G20" s="6"/>
       <c r="H20" s="13"/>
     </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="13"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A15:B16 A4:B4">
-    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B18">
-    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
+  <conditionalFormatting sqref="A16:B17 A4:B4">
+    <cfRule type="cellIs" dxfId="46" priority="12" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:B19">
+    <cfRule type="cellIs" dxfId="45" priority="13" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B7">
-    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="9" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E7">
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="8" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="cellIs" dxfId="33" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:B9">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2118,21 +2234,21 @@
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2152,7 +2268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2183,7 +2299,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2197,7 +2313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -2211,7 +2327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -2224,7 +2340,7 @@
         <v>0.35809000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -2261,7 +2377,7 @@
       <c r="AA6"/>
       <c r="AB6"/>
     </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
@@ -2279,7 +2395,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -2298,51 +2414,51 @@
         <v>1.9842</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="6"/>
@@ -2352,7 +2468,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="6"/>
@@ -2364,37 +2480,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A12:B13 A4:B4">
-    <cfRule type="cellIs" dxfId="28" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B15">
-    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="9" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2407,28 +2523,28 @@
   <sheetPr>
     <tabColor rgb="FFFF9999"/>
   </sheetPr>
-  <dimension ref="A1:AB20"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2448,7 +2564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2479,7 +2595,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2493,7 +2609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -2507,7 +2623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -2520,7 +2636,7 @@
         <v>0.35809000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2561,7 +2677,7 @@
       <c r="AA6"/>
       <c r="AB6"/>
     </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>14</v>
@@ -2596,7 +2712,7 @@
       <c r="AA7"/>
       <c r="AB7"/>
     </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>13</v>
@@ -2634,64 +2750,59 @@
       <c r="AA8"/>
       <c r="AB8"/>
     </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15">
-        <v>100</v>
-      </c>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-    </row>
-    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7">
-        <v>6.7816159999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15">
+        <v>100</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+    </row>
+    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2699,70 +2810,78 @@
         <v>13</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7">
+        <v>6.7816159999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7">
         <f>0.83834*2</f>
         <v>1.6766799999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="6"/>
@@ -2772,59 +2891,79 @@
       <c r="G20" s="6"/>
       <c r="H20" s="13"/>
     </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="13"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A15:B16 A4:B4">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B18">
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
+  <conditionalFormatting sqref="A16:B17 A4:B4">
+    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:B19">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B7">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E7">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:B9">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2837,28 +2976,28 @@
   <sheetPr>
     <tabColor rgb="FFFF9999"/>
   </sheetPr>
-  <dimension ref="A1:AB20"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2878,7 +3017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2909,7 +3048,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2923,7 +3062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -2937,7 +3076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -2950,7 +3089,7 @@
         <v>0.35809000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2991,7 +3130,7 @@
       <c r="AA6"/>
       <c r="AB6"/>
     </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>14</v>
@@ -3026,7 +3165,7 @@
       <c r="AA7"/>
       <c r="AB7"/>
     </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>13</v>
@@ -3064,64 +3203,59 @@
       <c r="AA8"/>
       <c r="AB8"/>
     </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15">
-        <v>100</v>
-      </c>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-    </row>
-    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7">
-        <v>6.4820000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15">
+        <v>100</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+    </row>
+    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -3129,70 +3263,78 @@
         <v>13</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7">
+        <v>6.4820000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7">
         <f>0.96035*2</f>
         <v>1.9207000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="6"/>
@@ -3202,59 +3344,79 @@
       <c r="G20" s="6"/>
       <c r="H20" s="13"/>
     </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="13"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A15:B16 A4:B4">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B18">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+  <conditionalFormatting sqref="A16:B17 A4:B4">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:B19">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B7">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E7">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:B8">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:B9">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Steer/Ackermann/sm_car_data_Steer_Ackermann.xlsx
+++ b/Libraries/Vehicle/Steer/Ackermann/sm_car_data_Steer_Ackermann.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Steer\Ackermann\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vtpVDG\Libraries\Vehicle\Steer\Ackermann\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F6C4F8-7A07-4223-9F5C-18941F948CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94447006-C908-468F-BB52-804CDDC4D57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="2955" windowWidth="25275" windowHeight="11235" tabRatio="717" activeTab="6" xr2:uid="{6551A3D7-48D1-475C-90BB-3A0F5E8315B3}"/>
+    <workbookView xWindow="3525" yWindow="1125" windowWidth="21600" windowHeight="11235" tabRatio="717" activeTab="4" xr2:uid="{6551A3D7-48D1-475C-90BB-3A0F5E8315B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_Hamba_f" sheetId="2" r:id="rId1"/>
     <sheet name="Sedan_Hamba_r" sheetId="5" r:id="rId2"/>
     <sheet name="Sedan_HambaLG_f" sheetId="1" r:id="rId3"/>
     <sheet name="Sedan_HambaLG_r" sheetId="6" r:id="rId4"/>
-    <sheet name="Bus_Makhulu_f" sheetId="3" r:id="rId5"/>
-    <sheet name="Truck_Amandla_A1" sheetId="4" r:id="rId6"/>
-    <sheet name="Truck_Rhuqa_A1" sheetId="7" r:id="rId7"/>
+    <sheet name="SUV_Landy_f" sheetId="8" r:id="rId5"/>
+    <sheet name="Bus_Makhulu_f" sheetId="3" r:id="rId6"/>
+    <sheet name="Truck_Amandla_A1" sheetId="4" r:id="rId7"/>
+    <sheet name="Truck_Rhuqa_A1" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="35">
   <si>
     <t>Units</t>
   </si>
@@ -141,6 +142,9 @@
   </si>
   <si>
     <t>Ackermann_Rhuqa_A1</t>
+  </si>
+  <si>
+    <t>Ackermann_Landy_f</t>
   </si>
 </sst>
 </file>
@@ -241,7 +245,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1008,22 +1040,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A20:A21">
-    <cfRule type="cellIs" dxfId="27" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4 A16:B19">
-    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B10">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E10">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1227,22 +1259,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A16:A17">
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="8" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4 A12:B15">
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1512,22 +1544,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A20:A21">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4 A16:B19">
-    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B10">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E10">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1731,22 +1763,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A16:A17">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4 A12:B15">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1755,6 +1787,290 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAE486A-D3F1-4078-B614-1F82C5F3CC89}">
+  <sheetPr>
+    <tabColor rgb="FFFF9999"/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="H5">
+        <v>0.35809000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="13">
+        <v>-1.0213531220517</v>
+      </c>
+      <c r="G6" s="13">
+        <v>-0.37675517503754502</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1.2232615388534001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13">
+        <v>0.35289999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>1.4859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="H21" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A20:A21">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B4 A16:B19">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:B10">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E10">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0A7380-3E5A-436D-B7E7-275A0C4C8A59}">
   <sheetPr>
     <tabColor rgb="FFFF9999"/>
@@ -2039,7 +2355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6242D4D0-AC4E-4FE0-AE9C-8DE79678564D}">
   <sheetPr>
     <tabColor rgb="FFFF9999"/>
@@ -2324,14 +2640,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9C6072-4553-4A62-8884-4AFAFCE1CB17}">
   <sheetPr>
     <tabColor rgb="FFFF9999"/>
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
